--- a/Template-TestCase.xlsx
+++ b/Template-TestCase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumjha/codebase/Selenium-SMT-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB1335C-96B4-0D40-B101-6542C96D8925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F238976-ECB1-D048-8E15-5283EFEEFAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Module Name</t>
   </si>
@@ -67,36 +67,6 @@
   </si>
   <si>
     <t>InputField2</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>TC11</t>
   </si>
   <si>
     <t>Search a flight</t>
@@ -119,13 +89,41 @@
     <t>TC1_Search_flight</t>
   </si>
   <si>
-    <t>Haryana</t>
+    <t>TC2_Search_flight</t>
+  </si>
+  <si>
+    <t>Google Flight page is open</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Jammu</t>
+  </si>
+  <si>
+    <t>Flights from Hyderabad to Jammu should be shown</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>TC3_Search_flight</t>
+  </si>
+  <si>
+    <t>No flights should be shown</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,11 +217,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,8 +226,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,279 +536,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J8" sqref="J8:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625"/>
+    <col min="2" max="2" customWidth="true" width="19.5"/>
+    <col min="3" max="3" customWidth="true" width="16.5"/>
+    <col min="4" max="4" customWidth="true" width="19.33203125"/>
+    <col min="5" max="6" customWidth="true" width="17.1640625"/>
+    <col min="7" max="7" customWidth="true" style="5" width="19.1640625"/>
+    <col min="8" max="8" customWidth="true" width="22.0"/>
+    <col min="9" max="9" customWidth="true" width="18.5"/>
+    <col min="10" max="10" customWidth="true" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
@@ -820,14 +740,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,18 +910,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,18 +943,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE1B6A3-101D-49A9-8039-A3F68B763A7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B976B4F-4BC8-43CF-95B3-8F082FF5FBAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE1B6A3-101D-49A9-8039-A3F68B763A7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>